--- a/Preliminare/64.8_108/Cp-Lambda_v3_2021_CLEAN_March2021/3.Structure/CrossSectionAnalysis_v1.06/Input/Baseline_96_1.5MW_IIA_Structure_Data.xlsx
+++ b/Preliminare/64.8_108/Cp-Lambda_v3_2021_CLEAN_March2021/3.Structure/CrossSectionAnalysis_v1.06/Input/Baseline_96_1.5MW_IIA_Structure_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA98A172-FDCA-4FB5-B1CF-2FA058C09367}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C02CF6-74FF-4272-86ED-E839A80CAA1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1120,280 +1120,280 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3854800000000003</c:v>
+                  <c:v>1.9059599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5730959999999996</c:v>
+                  <c:v>2.6131919999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7564400000000004</c:v>
+                  <c:v>3.3178799999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.946191999999999</c:v>
+                  <c:v>4.0263839999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1338079999999993</c:v>
+                  <c:v>4.7336159999999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3203559999999985</c:v>
+                  <c:v>5.4402119999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5069039999999969</c:v>
+                  <c:v>6.1468079999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.693451999999999</c:v>
+                  <c:v>6.8534039999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.879999999999999</c:v>
+                  <c:v>7.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.066547999999999</c:v>
+                  <c:v>8.2665959999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.253095999999999</c:v>
+                  <c:v>8.9731919999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.439643999999999</c:v>
+                  <c:v>9.6797879999999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.626192</c:v>
+                  <c:v>10.386383999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.813807999999998</c:v>
+                  <c:v>11.093615999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.000355999999996</c:v>
+                  <c:v>11.800211999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.186903999999998</c:v>
+                  <c:v>12.506807999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.373452</c:v>
+                  <c:v>13.213403999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.026</c:v>
+                  <c:v>13.601999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.56</c:v>
+                  <c:v>13.919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.746547999999997</c:v>
+                  <c:v>14.626595999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.933095999999999</c:v>
+                  <c:v>15.333191999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26.119644000000001</c:v>
+                  <c:v>16.039787999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.306191999999999</c:v>
+                  <c:v>16.746383999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28.493807999999998</c:v>
+                  <c:v>17.453615999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29.680356</c:v>
+                  <c:v>18.160211999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.866903999999995</c:v>
+                  <c:v>18.866807999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32.053452</c:v>
+                  <c:v>19.573403999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.24</c:v>
+                  <c:v>20.279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.426548000000004</c:v>
+                  <c:v>20.986595999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.613096000000006</c:v>
+                  <c:v>21.693191999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.799644000000008</c:v>
+                  <c:v>22.399788000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.986192000000003</c:v>
+                  <c:v>23.106383999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39.173808000000001</c:v>
+                  <c:v>23.813615999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40.36035600000001</c:v>
+                  <c:v>24.520212000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41.546904000000005</c:v>
+                  <c:v>25.226807999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.733452</c:v>
+                  <c:v>25.933403999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43.92</c:v>
+                  <c:v>26.639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45.106547999999762</c:v>
+                  <c:v>27.346595999999852</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>46.293095999999998</c:v>
+                  <c:v>28.053191999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.479643999999766</c:v>
+                  <c:v>28.759787999999855</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>48.666192000000002</c:v>
+                  <c:v>29.466383999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>49.853808000000001</c:v>
+                  <c:v>30.173615999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51.040355999999761</c:v>
+                  <c:v>30.880211999999855</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>52.226903999999998</c:v>
+                  <c:v>31.586807999999994</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>53.413451999999765</c:v>
+                  <c:v>32.293403999999853</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>54.6</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55.786547999999762</c:v>
+                  <c:v>33.706595999999855</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>56.973096000000005</c:v>
+                  <c:v>34.413192000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>58.159643999999759</c:v>
+                  <c:v>35.119787999999858</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59.346192000000002</c:v>
+                  <c:v>35.826384000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>60.533807999999993</c:v>
+                  <c:v>36.533615999999995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>61.720356000000002</c:v>
+                  <c:v>37.240212</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.906903999999997</c:v>
+                  <c:v>37.946807999999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>64.093451999999999</c:v>
+                  <c:v>38.653404000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>65.28</c:v>
+                  <c:v>39.36</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>66.466547999999989</c:v>
+                  <c:v>40.066595999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>67.653096000000005</c:v>
+                  <c:v>40.773192000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>68.839643999999765</c:v>
+                  <c:v>41.479787999999857</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>70.026192000000009</c:v>
+                  <c:v>42.186383999999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>71.213808</c:v>
+                  <c:v>42.893616000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>72.400355999999761</c:v>
+                  <c:v>43.600211999999857</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>73.586904000000004</c:v>
+                  <c:v>44.306808000000004</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>74.773452000000006</c:v>
+                  <c:v>45.013404000000008</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>75.959999999999766</c:v>
+                  <c:v>45.719999999999864</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>77.14654800000001</c:v>
+                  <c:v>46.426596000000004</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>78.333095999999756</c:v>
+                  <c:v>47.133191999999859</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>79.519644</c:v>
+                  <c:v>47.839787999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>80.706192000000001</c:v>
+                  <c:v>48.546383999999996</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>81.893808000000007</c:v>
+                  <c:v>49.253616000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>83.080355999999753</c:v>
+                  <c:v>49.960211999999856</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>84.266903999999997</c:v>
+                  <c:v>50.666808000000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>85.453452000000013</c:v>
+                  <c:v>51.373404000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>86.64</c:v>
+                  <c:v>52.08</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>87.826547999999761</c:v>
+                  <c:v>52.786595999999854</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>89.013095999999763</c:v>
+                  <c:v>53.493191999999851</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>90.199644000000006</c:v>
+                  <c:v>54.199787999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>91.386191999999994</c:v>
+                  <c:v>54.906383999999996</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92.573808</c:v>
+                  <c:v>55.613616</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>93.760355999999987</c:v>
+                  <c:v>56.320211999999991</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.946904000000018</c:v>
+                  <c:v>57.026808000000003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>96.133452000000005</c:v>
+                  <c:v>57.733404</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>97.320000000000007</c:v>
+                  <c:v>58.44</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>98.506547999999754</c:v>
+                  <c:v>59.146595999999853</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>99.693095999999997</c:v>
+                  <c:v>59.853191999999993</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>100.879644</c:v>
+                  <c:v>60.559787999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>102.066192</c:v>
+                  <c:v>61.266384000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>103.25380799999999</c:v>
+                  <c:v>61.973615999999993</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>104.44035599999975</c:v>
+                  <c:v>62.680211999999848</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>104.79599999999976</c:v>
+                  <c:v>62.891999999999854</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>105.62690399999975</c:v>
+                  <c:v>63.386807999999846</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>106.813452</c:v>
+                  <c:v>64.093403999999992</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>108</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,280 +1721,280 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3854800000000003</c:v>
+                  <c:v>1.9059599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5730959999999996</c:v>
+                  <c:v>2.6131919999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7564400000000004</c:v>
+                  <c:v>3.3178799999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.946191999999999</c:v>
+                  <c:v>4.0263839999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1338079999999993</c:v>
+                  <c:v>4.7336159999999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3203559999999985</c:v>
+                  <c:v>5.4402119999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5069039999999969</c:v>
+                  <c:v>6.1468079999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.693451999999999</c:v>
+                  <c:v>6.8534039999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.879999999999999</c:v>
+                  <c:v>7.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.066547999999999</c:v>
+                  <c:v>8.2665959999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.253095999999999</c:v>
+                  <c:v>8.9731919999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.439643999999999</c:v>
+                  <c:v>9.6797879999999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.626192</c:v>
+                  <c:v>10.386383999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.813807999999998</c:v>
+                  <c:v>11.093615999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.000355999999996</c:v>
+                  <c:v>11.800211999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.186903999999998</c:v>
+                  <c:v>12.506807999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.373452</c:v>
+                  <c:v>13.213403999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.026</c:v>
+                  <c:v>13.601999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.56</c:v>
+                  <c:v>13.919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.746547999999997</c:v>
+                  <c:v>14.626595999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.933095999999999</c:v>
+                  <c:v>15.333191999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26.119644000000001</c:v>
+                  <c:v>16.039787999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.306191999999999</c:v>
+                  <c:v>16.746383999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28.493807999999998</c:v>
+                  <c:v>17.453615999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29.680356</c:v>
+                  <c:v>18.160211999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.866903999999995</c:v>
+                  <c:v>18.866807999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32.053452</c:v>
+                  <c:v>19.573403999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.24</c:v>
+                  <c:v>20.279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.426548000000004</c:v>
+                  <c:v>20.986595999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.613096000000006</c:v>
+                  <c:v>21.693191999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.799644000000008</c:v>
+                  <c:v>22.399788000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.986192000000003</c:v>
+                  <c:v>23.106383999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39.173808000000001</c:v>
+                  <c:v>23.813615999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40.36035600000001</c:v>
+                  <c:v>24.520212000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41.546904000000005</c:v>
+                  <c:v>25.226807999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.733452</c:v>
+                  <c:v>25.933403999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43.92</c:v>
+                  <c:v>26.639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45.106547999999762</c:v>
+                  <c:v>27.346595999999852</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>46.293095999999998</c:v>
+                  <c:v>28.053191999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.479643999999766</c:v>
+                  <c:v>28.759787999999855</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>48.666192000000002</c:v>
+                  <c:v>29.466383999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>49.853808000000001</c:v>
+                  <c:v>30.173615999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51.040355999999761</c:v>
+                  <c:v>30.880211999999855</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>52.226903999999998</c:v>
+                  <c:v>31.586807999999994</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>53.413451999999765</c:v>
+                  <c:v>32.293403999999853</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>54.6</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55.786547999999762</c:v>
+                  <c:v>33.706595999999855</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>56.973096000000005</c:v>
+                  <c:v>34.413192000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>58.159643999999759</c:v>
+                  <c:v>35.119787999999858</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59.346192000000002</c:v>
+                  <c:v>35.826384000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>60.533807999999993</c:v>
+                  <c:v>36.533615999999995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>61.720356000000002</c:v>
+                  <c:v>37.240212</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.906903999999997</c:v>
+                  <c:v>37.946807999999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>64.093451999999999</c:v>
+                  <c:v>38.653404000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>65.28</c:v>
+                  <c:v>39.36</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>66.466547999999989</c:v>
+                  <c:v>40.066595999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>67.653096000000005</c:v>
+                  <c:v>40.773192000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>68.839643999999765</c:v>
+                  <c:v>41.479787999999857</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>70.026192000000009</c:v>
+                  <c:v>42.186383999999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>71.213808</c:v>
+                  <c:v>42.893616000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>72.400355999999761</c:v>
+                  <c:v>43.600211999999857</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>73.586904000000004</c:v>
+                  <c:v>44.306808000000004</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>74.773452000000006</c:v>
+                  <c:v>45.013404000000008</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>75.959999999999766</c:v>
+                  <c:v>45.719999999999864</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>77.14654800000001</c:v>
+                  <c:v>46.426596000000004</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>78.333095999999756</c:v>
+                  <c:v>47.133191999999859</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>79.519644</c:v>
+                  <c:v>47.839787999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>80.706192000000001</c:v>
+                  <c:v>48.546383999999996</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>81.893808000000007</c:v>
+                  <c:v>49.253616000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>83.080355999999753</c:v>
+                  <c:v>49.960211999999856</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>84.266903999999997</c:v>
+                  <c:v>50.666808000000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>85.453452000000013</c:v>
+                  <c:v>51.373404000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>86.64</c:v>
+                  <c:v>52.08</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>87.826547999999761</c:v>
+                  <c:v>52.786595999999854</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>89.013095999999763</c:v>
+                  <c:v>53.493191999999851</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>90.199644000000006</c:v>
+                  <c:v>54.199787999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>91.386191999999994</c:v>
+                  <c:v>54.906383999999996</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92.573808</c:v>
+                  <c:v>55.613616</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>93.760355999999987</c:v>
+                  <c:v>56.320211999999991</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.946904000000018</c:v>
+                  <c:v>57.026808000000003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>96.133452000000005</c:v>
+                  <c:v>57.733404</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>97.320000000000007</c:v>
+                  <c:v>58.44</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>98.506547999999754</c:v>
+                  <c:v>59.146595999999853</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>99.693095999999997</c:v>
+                  <c:v>59.853191999999993</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>100.879644</c:v>
+                  <c:v>60.559787999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>102.066192</c:v>
+                  <c:v>61.266384000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>103.25380799999999</c:v>
+                  <c:v>61.973615999999993</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>104.44035599999975</c:v>
+                  <c:v>62.680211999999848</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>104.79599999999976</c:v>
+                  <c:v>62.891999999999854</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>105.62690399999975</c:v>
+                  <c:v>63.386807999999846</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>106.813452</c:v>
+                  <c:v>64.093403999999992</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>108</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2322,280 +2322,280 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3854800000000003</c:v>
+                  <c:v>1.9059599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5730959999999996</c:v>
+                  <c:v>2.6131919999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7564400000000004</c:v>
+                  <c:v>3.3178799999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.946191999999999</c:v>
+                  <c:v>4.0263839999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1338079999999993</c:v>
+                  <c:v>4.7336159999999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3203559999999985</c:v>
+                  <c:v>5.4402119999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5069039999999969</c:v>
+                  <c:v>6.1468079999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.693451999999999</c:v>
+                  <c:v>6.8534039999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.879999999999999</c:v>
+                  <c:v>7.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.066547999999999</c:v>
+                  <c:v>8.2665959999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.253095999999999</c:v>
+                  <c:v>8.9731919999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.439643999999999</c:v>
+                  <c:v>9.6797879999999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.626192</c:v>
+                  <c:v>10.386383999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.813807999999998</c:v>
+                  <c:v>11.093615999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.000355999999996</c:v>
+                  <c:v>11.800211999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.186903999999998</c:v>
+                  <c:v>12.506807999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.373452</c:v>
+                  <c:v>13.213403999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.026</c:v>
+                  <c:v>13.601999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.56</c:v>
+                  <c:v>13.919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.746547999999997</c:v>
+                  <c:v>14.626595999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.933095999999999</c:v>
+                  <c:v>15.333191999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26.119644000000001</c:v>
+                  <c:v>16.039787999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.306191999999999</c:v>
+                  <c:v>16.746383999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28.493807999999998</c:v>
+                  <c:v>17.453615999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29.680356</c:v>
+                  <c:v>18.160211999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.866903999999995</c:v>
+                  <c:v>18.866807999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32.053452</c:v>
+                  <c:v>19.573403999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.24</c:v>
+                  <c:v>20.279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.426548000000004</c:v>
+                  <c:v>20.986595999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.613096000000006</c:v>
+                  <c:v>21.693191999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.799644000000008</c:v>
+                  <c:v>22.399788000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.986192000000003</c:v>
+                  <c:v>23.106383999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39.173808000000001</c:v>
+                  <c:v>23.813615999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40.36035600000001</c:v>
+                  <c:v>24.520212000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41.546904000000005</c:v>
+                  <c:v>25.226807999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.733452</c:v>
+                  <c:v>25.933403999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43.92</c:v>
+                  <c:v>26.639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45.106547999999762</c:v>
+                  <c:v>27.346595999999852</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>46.293095999999998</c:v>
+                  <c:v>28.053191999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.479643999999766</c:v>
+                  <c:v>28.759787999999855</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>48.666192000000002</c:v>
+                  <c:v>29.466383999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>49.853808000000001</c:v>
+                  <c:v>30.173615999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51.040355999999761</c:v>
+                  <c:v>30.880211999999855</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>52.226903999999998</c:v>
+                  <c:v>31.586807999999994</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>53.413451999999765</c:v>
+                  <c:v>32.293403999999853</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>54.6</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55.786547999999762</c:v>
+                  <c:v>33.706595999999855</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>56.973096000000005</c:v>
+                  <c:v>34.413192000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>58.159643999999759</c:v>
+                  <c:v>35.119787999999858</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59.346192000000002</c:v>
+                  <c:v>35.826384000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>60.533807999999993</c:v>
+                  <c:v>36.533615999999995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>61.720356000000002</c:v>
+                  <c:v>37.240212</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.906903999999997</c:v>
+                  <c:v>37.946807999999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>64.093451999999999</c:v>
+                  <c:v>38.653404000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>65.28</c:v>
+                  <c:v>39.36</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>66.466547999999989</c:v>
+                  <c:v>40.066595999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>67.653096000000005</c:v>
+                  <c:v>40.773192000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>68.839643999999765</c:v>
+                  <c:v>41.479787999999857</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>70.026192000000009</c:v>
+                  <c:v>42.186383999999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>71.213808</c:v>
+                  <c:v>42.893616000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>72.400355999999761</c:v>
+                  <c:v>43.600211999999857</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>73.586904000000004</c:v>
+                  <c:v>44.306808000000004</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>74.773452000000006</c:v>
+                  <c:v>45.013404000000008</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>75.959999999999766</c:v>
+                  <c:v>45.719999999999864</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>77.14654800000001</c:v>
+                  <c:v>46.426596000000004</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>78.333095999999756</c:v>
+                  <c:v>47.133191999999859</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>79.519644</c:v>
+                  <c:v>47.839787999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>80.706192000000001</c:v>
+                  <c:v>48.546383999999996</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>81.893808000000007</c:v>
+                  <c:v>49.253616000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>83.080355999999753</c:v>
+                  <c:v>49.960211999999856</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>84.266903999999997</c:v>
+                  <c:v>50.666808000000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>85.453452000000013</c:v>
+                  <c:v>51.373404000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>86.64</c:v>
+                  <c:v>52.08</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>87.826547999999761</c:v>
+                  <c:v>52.786595999999854</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>89.013095999999763</c:v>
+                  <c:v>53.493191999999851</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>90.199644000000006</c:v>
+                  <c:v>54.199787999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>91.386191999999994</c:v>
+                  <c:v>54.906383999999996</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92.573808</c:v>
+                  <c:v>55.613616</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>93.760355999999987</c:v>
+                  <c:v>56.320211999999991</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.946904000000018</c:v>
+                  <c:v>57.026808000000003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>96.133452000000005</c:v>
+                  <c:v>57.733404</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>97.320000000000007</c:v>
+                  <c:v>58.44</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>98.506547999999754</c:v>
+                  <c:v>59.146595999999853</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>99.693095999999997</c:v>
+                  <c:v>59.853191999999993</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>100.879644</c:v>
+                  <c:v>60.559787999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>102.066192</c:v>
+                  <c:v>61.266384000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>103.25380799999999</c:v>
+                  <c:v>61.973615999999993</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>104.44035599999975</c:v>
+                  <c:v>62.680211999999848</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>104.79599999999976</c:v>
+                  <c:v>62.891999999999854</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>105.62690399999975</c:v>
+                  <c:v>63.386807999999846</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>106.813452</c:v>
+                  <c:v>64.093403999999992</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>108</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2923,280 +2923,280 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3854800000000003</c:v>
+                  <c:v>1.9059599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5730959999999996</c:v>
+                  <c:v>2.6131919999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7564400000000004</c:v>
+                  <c:v>3.3178799999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.946191999999999</c:v>
+                  <c:v>4.0263839999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1338079999999993</c:v>
+                  <c:v>4.7336159999999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3203559999999985</c:v>
+                  <c:v>5.4402119999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5069039999999969</c:v>
+                  <c:v>6.1468079999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.693451999999999</c:v>
+                  <c:v>6.8534039999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.879999999999999</c:v>
+                  <c:v>7.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.066547999999999</c:v>
+                  <c:v>8.2665959999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.253095999999999</c:v>
+                  <c:v>8.9731919999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.439643999999999</c:v>
+                  <c:v>9.6797879999999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.626192</c:v>
+                  <c:v>10.386383999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.813807999999998</c:v>
+                  <c:v>11.093615999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.000355999999996</c:v>
+                  <c:v>11.800211999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.186903999999998</c:v>
+                  <c:v>12.506807999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.373452</c:v>
+                  <c:v>13.213403999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.026</c:v>
+                  <c:v>13.601999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.56</c:v>
+                  <c:v>13.919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.746547999999997</c:v>
+                  <c:v>14.626595999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.933095999999999</c:v>
+                  <c:v>15.333191999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26.119644000000001</c:v>
+                  <c:v>16.039787999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.306191999999999</c:v>
+                  <c:v>16.746383999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28.493807999999998</c:v>
+                  <c:v>17.453615999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29.680356</c:v>
+                  <c:v>18.160211999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.866903999999995</c:v>
+                  <c:v>18.866807999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32.053452</c:v>
+                  <c:v>19.573403999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.24</c:v>
+                  <c:v>20.279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.426548000000004</c:v>
+                  <c:v>20.986595999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.613096000000006</c:v>
+                  <c:v>21.693191999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.799644000000008</c:v>
+                  <c:v>22.399788000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.986192000000003</c:v>
+                  <c:v>23.106383999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39.173808000000001</c:v>
+                  <c:v>23.813615999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40.36035600000001</c:v>
+                  <c:v>24.520212000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41.546904000000005</c:v>
+                  <c:v>25.226807999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.733452</c:v>
+                  <c:v>25.933403999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43.92</c:v>
+                  <c:v>26.639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45.106547999999762</c:v>
+                  <c:v>27.346595999999852</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>46.293095999999998</c:v>
+                  <c:v>28.053191999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.479643999999766</c:v>
+                  <c:v>28.759787999999855</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>48.666192000000002</c:v>
+                  <c:v>29.466383999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>49.853808000000001</c:v>
+                  <c:v>30.173615999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51.040355999999761</c:v>
+                  <c:v>30.880211999999855</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>52.226903999999998</c:v>
+                  <c:v>31.586807999999994</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>53.413451999999765</c:v>
+                  <c:v>32.293403999999853</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>54.6</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55.786547999999762</c:v>
+                  <c:v>33.706595999999855</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>56.973096000000005</c:v>
+                  <c:v>34.413192000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>58.159643999999759</c:v>
+                  <c:v>35.119787999999858</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59.346192000000002</c:v>
+                  <c:v>35.826384000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>60.533807999999993</c:v>
+                  <c:v>36.533615999999995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>61.720356000000002</c:v>
+                  <c:v>37.240212</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.906903999999997</c:v>
+                  <c:v>37.946807999999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>64.093451999999999</c:v>
+                  <c:v>38.653404000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>65.28</c:v>
+                  <c:v>39.36</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>66.466547999999989</c:v>
+                  <c:v>40.066595999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>67.653096000000005</c:v>
+                  <c:v>40.773192000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>68.839643999999765</c:v>
+                  <c:v>41.479787999999857</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>70.026192000000009</c:v>
+                  <c:v>42.186383999999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>71.213808</c:v>
+                  <c:v>42.893616000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>72.400355999999761</c:v>
+                  <c:v>43.600211999999857</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>73.586904000000004</c:v>
+                  <c:v>44.306808000000004</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>74.773452000000006</c:v>
+                  <c:v>45.013404000000008</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>75.959999999999766</c:v>
+                  <c:v>45.719999999999864</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>77.14654800000001</c:v>
+                  <c:v>46.426596000000004</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>78.333095999999756</c:v>
+                  <c:v>47.133191999999859</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>79.519644</c:v>
+                  <c:v>47.839787999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>80.706192000000001</c:v>
+                  <c:v>48.546383999999996</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>81.893808000000007</c:v>
+                  <c:v>49.253616000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>83.080355999999753</c:v>
+                  <c:v>49.960211999999856</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>84.266903999999997</c:v>
+                  <c:v>50.666808000000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>85.453452000000013</c:v>
+                  <c:v>51.373404000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>86.64</c:v>
+                  <c:v>52.08</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>87.826547999999761</c:v>
+                  <c:v>52.786595999999854</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>89.013095999999763</c:v>
+                  <c:v>53.493191999999851</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>90.199644000000006</c:v>
+                  <c:v>54.199787999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>91.386191999999994</c:v>
+                  <c:v>54.906383999999996</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92.573808</c:v>
+                  <c:v>55.613616</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>93.760355999999987</c:v>
+                  <c:v>56.320211999999991</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.946904000000018</c:v>
+                  <c:v>57.026808000000003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>96.133452000000005</c:v>
+                  <c:v>57.733404</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>97.320000000000007</c:v>
+                  <c:v>58.44</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>98.506547999999754</c:v>
+                  <c:v>59.146595999999853</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>99.693095999999997</c:v>
+                  <c:v>59.853191999999993</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>100.879644</c:v>
+                  <c:v>60.559787999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>102.066192</c:v>
+                  <c:v>61.266384000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>103.25380799999999</c:v>
+                  <c:v>61.973615999999993</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>104.44035599999975</c:v>
+                  <c:v>62.680211999999848</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>104.79599999999976</c:v>
+                  <c:v>62.891999999999854</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>105.62690399999975</c:v>
+                  <c:v>63.386807999999846</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>106.813452</c:v>
+                  <c:v>64.093403999999992</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>108</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3524,280 +3524,280 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3854800000000003</c:v>
+                  <c:v>1.9059599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5730959999999996</c:v>
+                  <c:v>2.6131919999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7564400000000004</c:v>
+                  <c:v>3.3178799999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.946191999999999</c:v>
+                  <c:v>4.0263839999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1338079999999993</c:v>
+                  <c:v>4.7336159999999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3203559999999985</c:v>
+                  <c:v>5.4402119999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5069039999999969</c:v>
+                  <c:v>6.1468079999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.693451999999999</c:v>
+                  <c:v>6.8534039999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.879999999999999</c:v>
+                  <c:v>7.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.066547999999999</c:v>
+                  <c:v>8.2665959999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.253095999999999</c:v>
+                  <c:v>8.9731919999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.439643999999999</c:v>
+                  <c:v>9.6797879999999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.626192</c:v>
+                  <c:v>10.386383999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.813807999999998</c:v>
+                  <c:v>11.093615999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.000355999999996</c:v>
+                  <c:v>11.800211999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.186903999999998</c:v>
+                  <c:v>12.506807999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.373452</c:v>
+                  <c:v>13.213403999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.026</c:v>
+                  <c:v>13.601999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.56</c:v>
+                  <c:v>13.919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.746547999999997</c:v>
+                  <c:v>14.626595999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.933095999999999</c:v>
+                  <c:v>15.333191999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26.119644000000001</c:v>
+                  <c:v>16.039787999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.306191999999999</c:v>
+                  <c:v>16.746383999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28.493807999999998</c:v>
+                  <c:v>17.453615999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29.680356</c:v>
+                  <c:v>18.160211999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.866903999999995</c:v>
+                  <c:v>18.866807999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32.053452</c:v>
+                  <c:v>19.573403999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.24</c:v>
+                  <c:v>20.279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.426548000000004</c:v>
+                  <c:v>20.986595999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.613096000000006</c:v>
+                  <c:v>21.693191999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.799644000000008</c:v>
+                  <c:v>22.399788000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.986192000000003</c:v>
+                  <c:v>23.106383999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39.173808000000001</c:v>
+                  <c:v>23.813615999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40.36035600000001</c:v>
+                  <c:v>24.520212000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41.546904000000005</c:v>
+                  <c:v>25.226807999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.733452</c:v>
+                  <c:v>25.933403999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43.92</c:v>
+                  <c:v>26.639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45.106547999999762</c:v>
+                  <c:v>27.346595999999852</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>46.293095999999998</c:v>
+                  <c:v>28.053191999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.479643999999766</c:v>
+                  <c:v>28.759787999999855</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>48.666192000000002</c:v>
+                  <c:v>29.466383999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>49.853808000000001</c:v>
+                  <c:v>30.173615999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51.040355999999761</c:v>
+                  <c:v>30.880211999999855</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>52.226903999999998</c:v>
+                  <c:v>31.586807999999994</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>53.413451999999765</c:v>
+                  <c:v>32.293403999999853</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>54.6</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55.786547999999762</c:v>
+                  <c:v>33.706595999999855</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>56.973096000000005</c:v>
+                  <c:v>34.413192000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>58.159643999999759</c:v>
+                  <c:v>35.119787999999858</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59.346192000000002</c:v>
+                  <c:v>35.826384000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>60.533807999999993</c:v>
+                  <c:v>36.533615999999995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>61.720356000000002</c:v>
+                  <c:v>37.240212</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.906903999999997</c:v>
+                  <c:v>37.946807999999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>64.093451999999999</c:v>
+                  <c:v>38.653404000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>65.28</c:v>
+                  <c:v>39.36</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>66.466547999999989</c:v>
+                  <c:v>40.066595999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>67.653096000000005</c:v>
+                  <c:v>40.773192000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>68.839643999999765</c:v>
+                  <c:v>41.479787999999857</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>70.026192000000009</c:v>
+                  <c:v>42.186383999999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>71.213808</c:v>
+                  <c:v>42.893616000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>72.400355999999761</c:v>
+                  <c:v>43.600211999999857</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>73.586904000000004</c:v>
+                  <c:v>44.306808000000004</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>74.773452000000006</c:v>
+                  <c:v>45.013404000000008</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>75.959999999999766</c:v>
+                  <c:v>45.719999999999864</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>77.14654800000001</c:v>
+                  <c:v>46.426596000000004</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>78.333095999999756</c:v>
+                  <c:v>47.133191999999859</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>79.519644</c:v>
+                  <c:v>47.839787999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>80.706192000000001</c:v>
+                  <c:v>48.546383999999996</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>81.893808000000007</c:v>
+                  <c:v>49.253616000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>83.080355999999753</c:v>
+                  <c:v>49.960211999999856</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>84.266903999999997</c:v>
+                  <c:v>50.666808000000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>85.453452000000013</c:v>
+                  <c:v>51.373404000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>86.64</c:v>
+                  <c:v>52.08</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>87.826547999999761</c:v>
+                  <c:v>52.786595999999854</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>89.013095999999763</c:v>
+                  <c:v>53.493191999999851</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>90.199644000000006</c:v>
+                  <c:v>54.199787999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>91.386191999999994</c:v>
+                  <c:v>54.906383999999996</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92.573808</c:v>
+                  <c:v>55.613616</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>93.760355999999987</c:v>
+                  <c:v>56.320211999999991</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.946904000000018</c:v>
+                  <c:v>57.026808000000003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>96.133452000000005</c:v>
+                  <c:v>57.733404</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>97.320000000000007</c:v>
+                  <c:v>58.44</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>98.506547999999754</c:v>
+                  <c:v>59.146595999999853</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>99.693095999999997</c:v>
+                  <c:v>59.853191999999993</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>100.879644</c:v>
+                  <c:v>60.559787999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>102.066192</c:v>
+                  <c:v>61.266384000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>103.25380799999999</c:v>
+                  <c:v>61.973615999999993</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>104.44035599999975</c:v>
+                  <c:v>62.680211999999848</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>104.79599999999976</c:v>
+                  <c:v>62.891999999999854</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>105.62690399999975</c:v>
+                  <c:v>63.386807999999846</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>106.813452</c:v>
+                  <c:v>64.093403999999992</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>108</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4125,280 +4125,280 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3854800000000003</c:v>
+                  <c:v>1.9059599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5730959999999996</c:v>
+                  <c:v>2.6131919999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7564400000000004</c:v>
+                  <c:v>3.3178799999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.946191999999999</c:v>
+                  <c:v>4.0263839999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1338079999999993</c:v>
+                  <c:v>4.7336159999999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3203559999999985</c:v>
+                  <c:v>5.4402119999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5069039999999969</c:v>
+                  <c:v>6.1468079999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.693451999999999</c:v>
+                  <c:v>6.8534039999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.879999999999999</c:v>
+                  <c:v>7.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.066547999999999</c:v>
+                  <c:v>8.2665959999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.253095999999999</c:v>
+                  <c:v>8.9731919999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.439643999999999</c:v>
+                  <c:v>9.6797879999999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.626192</c:v>
+                  <c:v>10.386383999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.813807999999998</c:v>
+                  <c:v>11.093615999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.000355999999996</c:v>
+                  <c:v>11.800211999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.186903999999998</c:v>
+                  <c:v>12.506807999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.373452</c:v>
+                  <c:v>13.213403999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.026</c:v>
+                  <c:v>13.601999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.56</c:v>
+                  <c:v>13.919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.746547999999997</c:v>
+                  <c:v>14.626595999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.933095999999999</c:v>
+                  <c:v>15.333191999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26.119644000000001</c:v>
+                  <c:v>16.039787999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.306191999999999</c:v>
+                  <c:v>16.746383999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28.493807999999998</c:v>
+                  <c:v>17.453615999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29.680356</c:v>
+                  <c:v>18.160211999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.866903999999995</c:v>
+                  <c:v>18.866807999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32.053452</c:v>
+                  <c:v>19.573403999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.24</c:v>
+                  <c:v>20.279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.426548000000004</c:v>
+                  <c:v>20.986595999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.613096000000006</c:v>
+                  <c:v>21.693191999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.799644000000008</c:v>
+                  <c:v>22.399788000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.986192000000003</c:v>
+                  <c:v>23.106383999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39.173808000000001</c:v>
+                  <c:v>23.813615999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40.36035600000001</c:v>
+                  <c:v>24.520212000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41.546904000000005</c:v>
+                  <c:v>25.226807999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.733452</c:v>
+                  <c:v>25.933403999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43.92</c:v>
+                  <c:v>26.639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45.106547999999762</c:v>
+                  <c:v>27.346595999999852</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>46.293095999999998</c:v>
+                  <c:v>28.053191999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.479643999999766</c:v>
+                  <c:v>28.759787999999855</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>48.666192000000002</c:v>
+                  <c:v>29.466383999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>49.853808000000001</c:v>
+                  <c:v>30.173615999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51.040355999999761</c:v>
+                  <c:v>30.880211999999855</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>52.226903999999998</c:v>
+                  <c:v>31.586807999999994</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>53.413451999999765</c:v>
+                  <c:v>32.293403999999853</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>54.6</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55.786547999999762</c:v>
+                  <c:v>33.706595999999855</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>56.973096000000005</c:v>
+                  <c:v>34.413192000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>58.159643999999759</c:v>
+                  <c:v>35.119787999999858</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59.346192000000002</c:v>
+                  <c:v>35.826384000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>60.533807999999993</c:v>
+                  <c:v>36.533615999999995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>61.720356000000002</c:v>
+                  <c:v>37.240212</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.906903999999997</c:v>
+                  <c:v>37.946807999999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>64.093451999999999</c:v>
+                  <c:v>38.653404000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>65.28</c:v>
+                  <c:v>39.36</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>66.466547999999989</c:v>
+                  <c:v>40.066595999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>67.653096000000005</c:v>
+                  <c:v>40.773192000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>68.839643999999765</c:v>
+                  <c:v>41.479787999999857</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>70.026192000000009</c:v>
+                  <c:v>42.186383999999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>71.213808</c:v>
+                  <c:v>42.893616000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>72.400355999999761</c:v>
+                  <c:v>43.600211999999857</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>73.586904000000004</c:v>
+                  <c:v>44.306808000000004</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>74.773452000000006</c:v>
+                  <c:v>45.013404000000008</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>75.959999999999766</c:v>
+                  <c:v>45.719999999999864</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>77.14654800000001</c:v>
+                  <c:v>46.426596000000004</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>78.333095999999756</c:v>
+                  <c:v>47.133191999999859</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>79.519644</c:v>
+                  <c:v>47.839787999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>80.706192000000001</c:v>
+                  <c:v>48.546383999999996</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>81.893808000000007</c:v>
+                  <c:v>49.253616000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>83.080355999999753</c:v>
+                  <c:v>49.960211999999856</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>84.266903999999997</c:v>
+                  <c:v>50.666808000000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>85.453452000000013</c:v>
+                  <c:v>51.373404000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>86.64</c:v>
+                  <c:v>52.08</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>87.826547999999761</c:v>
+                  <c:v>52.786595999999854</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>89.013095999999763</c:v>
+                  <c:v>53.493191999999851</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>90.199644000000006</c:v>
+                  <c:v>54.199787999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>91.386191999999994</c:v>
+                  <c:v>54.906383999999996</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92.573808</c:v>
+                  <c:v>55.613616</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>93.760355999999987</c:v>
+                  <c:v>56.320211999999991</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.946904000000018</c:v>
+                  <c:v>57.026808000000003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>96.133452000000005</c:v>
+                  <c:v>57.733404</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>97.320000000000007</c:v>
+                  <c:v>58.44</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>98.506547999999754</c:v>
+                  <c:v>59.146595999999853</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>99.693095999999997</c:v>
+                  <c:v>59.853191999999993</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>100.879644</c:v>
+                  <c:v>60.559787999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>102.066192</c:v>
+                  <c:v>61.266384000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>103.25380799999999</c:v>
+                  <c:v>61.973615999999993</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>104.44035599999975</c:v>
+                  <c:v>62.680211999999848</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>104.79599999999976</c:v>
+                  <c:v>62.891999999999854</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>105.62690399999975</c:v>
+                  <c:v>63.386807999999846</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>106.813452</c:v>
+                  <c:v>64.093403999999992</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>108</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16906,7 +16906,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="90">
-        <v>108</v>
+        <v>64.8</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>90</v>
@@ -19382,7 +19382,7 @@
       </c>
       <c r="O1" s="35">
         <f>Settings!A2</f>
-        <v>108</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -19440,7 +19440,7 @@
       </c>
       <c r="B3" s="35">
         <f t="shared" si="0"/>
-        <v>2.3854800000000003</v>
+        <v>1.9059599999999999</v>
       </c>
       <c r="C3" s="35">
         <v>1.88</v>
@@ -19480,7 +19480,7 @@
       </c>
       <c r="O3" s="35">
         <f>O1-O2</f>
-        <v>106.8</v>
+        <v>63.599999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -19489,7 +19489,7 @@
       </c>
       <c r="B4" s="35">
         <f t="shared" si="0"/>
-        <v>3.5730959999999996</v>
+        <v>2.6131919999999997</v>
       </c>
       <c r="C4" s="35">
         <v>1.88</v>
@@ -19531,7 +19531,7 @@
       </c>
       <c r="B5" s="35">
         <f t="shared" si="0"/>
-        <v>4.7564400000000004</v>
+        <v>3.3178799999999997</v>
       </c>
       <c r="C5" s="35">
         <v>1.91546890661294</v>
@@ -19573,7 +19573,7 @@
       </c>
       <c r="B6" s="35">
         <f t="shared" si="0"/>
-        <v>5.946191999999999</v>
+        <v>4.0263839999999993</v>
       </c>
       <c r="C6" s="35">
         <v>2.0136599999999998</v>
@@ -19615,7 +19615,7 @@
       </c>
       <c r="B7" s="35">
         <f t="shared" si="0"/>
-        <v>7.1338079999999993</v>
+        <v>4.7336159999999987</v>
       </c>
       <c r="C7" s="35">
         <v>2.1609799999999999</v>
@@ -19657,7 +19657,7 @@
       </c>
       <c r="B8" s="35">
         <f t="shared" si="0"/>
-        <v>8.3203559999999985</v>
+        <v>5.4402119999999989</v>
       </c>
       <c r="C8" s="35">
         <v>2.3443900000000002</v>
@@ -19699,7 +19699,7 @@
       </c>
       <c r="B9" s="35">
         <f t="shared" si="0"/>
-        <v>9.5069039999999969</v>
+        <v>6.1468079999999992</v>
       </c>
       <c r="C9" s="35">
         <v>2.55071</v>
@@ -19741,7 +19741,7 @@
       </c>
       <c r="B10" s="35">
         <f t="shared" si="0"/>
-        <v>10.693451999999999</v>
+        <v>6.8534039999999994</v>
       </c>
       <c r="C10" s="35">
         <v>2.7667600000000001</v>
@@ -19783,7 +19783,7 @@
       </c>
       <c r="B11" s="35">
         <f t="shared" si="0"/>
-        <v>11.879999999999999</v>
+        <v>7.56</v>
       </c>
       <c r="C11" s="35">
         <v>2.9793799999999999</v>
@@ -19825,7 +19825,7 @@
       </c>
       <c r="B12" s="35">
         <f t="shared" si="0"/>
-        <v>13.066547999999999</v>
+        <v>8.2665959999999998</v>
       </c>
       <c r="C12" s="35">
         <v>3.1753900000000002</v>
@@ -19867,7 +19867,7 @@
       </c>
       <c r="B13" s="35">
         <f t="shared" si="0"/>
-        <v>14.253095999999999</v>
+        <v>8.9731919999999992</v>
       </c>
       <c r="C13" s="35">
         <v>3.3441100000000001</v>
@@ -19909,7 +19909,7 @@
       </c>
       <c r="B14" s="35">
         <f t="shared" si="0"/>
-        <v>15.439643999999999</v>
+        <v>9.6797879999999985</v>
       </c>
       <c r="C14" s="35">
         <v>3.4848400000000002</v>
@@ -19951,7 +19951,7 @@
       </c>
       <c r="B15" s="35">
         <f t="shared" si="0"/>
-        <v>16.626192</v>
+        <v>10.386383999999998</v>
       </c>
       <c r="C15" s="35">
         <v>3.5994000000000002</v>
@@ -19993,7 +19993,7 @@
       </c>
       <c r="B16" s="35">
         <f t="shared" si="0"/>
-        <v>17.813807999999998</v>
+        <v>11.093615999999999</v>
       </c>
       <c r="C16" s="35">
         <v>3.6895799999999999</v>
@@ -20035,7 +20035,7 @@
       </c>
       <c r="B17" s="35">
         <f t="shared" si="0"/>
-        <v>19.000355999999996</v>
+        <v>11.800211999999997</v>
       </c>
       <c r="C17" s="35">
         <v>3.7572000000000001</v>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="B18" s="35">
         <f t="shared" si="0"/>
-        <v>20.186903999999998</v>
+        <v>12.506807999999998</v>
       </c>
       <c r="C18" s="35">
         <v>3.8040500000000002</v>
@@ -20119,7 +20119,7 @@
       </c>
       <c r="B19" s="35">
         <f t="shared" si="0"/>
-        <v>21.373452</v>
+        <v>13.213403999999999</v>
       </c>
       <c r="C19" s="35">
         <v>3.8319399999999999</v>
@@ -20161,7 +20161,7 @@
       </c>
       <c r="B20" s="35">
         <f t="shared" si="0"/>
-        <v>22.026</v>
+        <v>13.601999999999999</v>
       </c>
       <c r="C20" s="35">
         <v>3.8398395139664099</v>
@@ -20205,7 +20205,7 @@
       </c>
       <c r="B21" s="35">
         <f t="shared" si="0"/>
-        <v>22.56</v>
+        <v>13.919999999999998</v>
       </c>
       <c r="C21" s="35">
         <v>3.8426800000000001</v>
@@ -20249,7 +20249,7 @@
       </c>
       <c r="B22" s="35">
         <f t="shared" si="0"/>
-        <v>23.746547999999997</v>
+        <v>14.626595999999997</v>
       </c>
       <c r="C22" s="35">
         <v>3.8380800000000002</v>
@@ -20293,7 +20293,7 @@
       </c>
       <c r="B23" s="35">
         <f t="shared" si="0"/>
-        <v>24.933095999999999</v>
+        <v>15.333191999999999</v>
       </c>
       <c r="C23" s="35">
         <v>3.8199299999999998</v>
@@ -20337,7 +20337,7 @@
       </c>
       <c r="B24" s="35">
         <f t="shared" si="0"/>
-        <v>26.119644000000001</v>
+        <v>16.039787999999998</v>
       </c>
       <c r="C24" s="35">
         <v>3.7900399999999999</v>
@@ -20381,7 +20381,7 @@
       </c>
       <c r="B25" s="35">
         <f t="shared" si="0"/>
-        <v>27.306191999999999</v>
+        <v>16.746383999999999</v>
       </c>
       <c r="C25" s="35">
         <v>3.7502200000000001</v>
@@ -20425,7 +20425,7 @@
       </c>
       <c r="B26" s="35">
         <f t="shared" si="0"/>
-        <v>28.493807999999998</v>
+        <v>17.453615999999997</v>
       </c>
       <c r="C26" s="35">
         <v>3.7022699999999999</v>
@@ -20469,7 +20469,7 @@
       </c>
       <c r="B27" s="35">
         <f t="shared" si="0"/>
-        <v>29.680356</v>
+        <v>18.160211999999998</v>
       </c>
       <c r="C27" s="35">
         <v>3.6480000000000001</v>
@@ -20513,7 +20513,7 @@
       </c>
       <c r="B28" s="35">
         <f t="shared" si="0"/>
-        <v>30.866903999999995</v>
+        <v>18.866807999999995</v>
       </c>
       <c r="C28" s="35">
         <v>3.5892200000000001</v>
@@ -20557,7 +20557,7 @@
       </c>
       <c r="B29" s="35">
         <f t="shared" si="0"/>
-        <v>32.053452</v>
+        <v>19.573403999999996</v>
       </c>
       <c r="C29" s="35">
         <v>3.52772</v>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="B30" s="35">
         <f t="shared" si="0"/>
-        <v>33.24</v>
+        <v>20.279999999999998</v>
       </c>
       <c r="C30" s="35">
         <v>3.4650300000000001</v>
@@ -20645,7 +20645,7 @@
       </c>
       <c r="B31" s="35">
         <f t="shared" si="0"/>
-        <v>34.426548000000004</v>
+        <v>20.986595999999999</v>
       </c>
       <c r="C31" s="35">
         <v>3.40158</v>
@@ -20689,7 +20689,7 @@
       </c>
       <c r="B32" s="35">
         <f t="shared" si="0"/>
-        <v>35.613096000000006</v>
+        <v>21.693191999999996</v>
       </c>
       <c r="C32" s="35">
         <v>3.33751</v>
@@ -20733,7 +20733,7 @@
       </c>
       <c r="B33" s="35">
         <f t="shared" si="0"/>
-        <v>36.799644000000008</v>
+        <v>22.399788000000001</v>
       </c>
       <c r="C33" s="35">
         <v>3.2729499999999998</v>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="B34" s="35">
         <f t="shared" ref="B34:B65" si="5">A34*$O$3+$O$2</f>
-        <v>37.986192000000003</v>
+        <v>23.106383999999998</v>
       </c>
       <c r="C34" s="35">
         <v>3.2080500000000001</v>
@@ -20821,7 +20821,7 @@
       </c>
       <c r="B35" s="35">
         <f t="shared" si="5"/>
-        <v>39.173808000000001</v>
+        <v>23.813615999999996</v>
       </c>
       <c r="C35" s="35">
         <v>3.1429399999999998</v>
@@ -20865,7 +20865,7 @@
       </c>
       <c r="B36" s="35">
         <f t="shared" si="5"/>
-        <v>40.36035600000001</v>
+        <v>24.520212000000001</v>
       </c>
       <c r="C36" s="35">
         <v>3.0777700000000001</v>
@@ -20909,7 +20909,7 @@
       </c>
       <c r="B37" s="35">
         <f t="shared" si="5"/>
-        <v>41.546904000000005</v>
+        <v>25.226807999999998</v>
       </c>
       <c r="C37" s="35">
         <v>3.01268</v>
@@ -20953,7 +20953,7 @@
       </c>
       <c r="B38" s="35">
         <f t="shared" si="5"/>
-        <v>42.733452</v>
+        <v>25.933403999999999</v>
       </c>
       <c r="C38" s="35">
         <v>2.9478200000000001</v>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="B39" s="35">
         <f t="shared" si="5"/>
-        <v>43.92</v>
+        <v>26.639999999999997</v>
       </c>
       <c r="C39" s="35">
         <v>2.8833099999999998</v>
@@ -21041,7 +21041,7 @@
       </c>
       <c r="B40" s="35">
         <f t="shared" si="5"/>
-        <v>45.106547999999762</v>
+        <v>27.346595999999852</v>
       </c>
       <c r="C40" s="35">
         <v>2.8193100000000002</v>
@@ -21085,7 +21085,7 @@
       </c>
       <c r="B41" s="35">
         <f t="shared" si="5"/>
-        <v>46.293095999999998</v>
+        <v>28.053191999999996</v>
       </c>
       <c r="C41" s="35">
         <v>2.7559399999999998</v>
@@ -21129,7 +21129,7 @@
       </c>
       <c r="B42" s="35">
         <f t="shared" si="5"/>
-        <v>47.479643999999766</v>
+        <v>28.759787999999855</v>
       </c>
       <c r="C42" s="35">
         <v>2.6933699999999998</v>
@@ -21173,7 +21173,7 @@
       </c>
       <c r="B43" s="35">
         <f t="shared" si="5"/>
-        <v>48.666192000000002</v>
+        <v>29.466383999999998</v>
       </c>
       <c r="C43" s="35">
         <v>2.6317200000000001</v>
@@ -21217,7 +21217,7 @@
       </c>
       <c r="B44" s="35">
         <f t="shared" si="5"/>
-        <v>49.853808000000001</v>
+        <v>30.173615999999996</v>
       </c>
       <c r="C44" s="35">
         <v>2.5711300000000001</v>
@@ -21261,7 +21261,7 @@
       </c>
       <c r="B45" s="35">
         <f t="shared" si="5"/>
-        <v>51.040355999999761</v>
+        <v>30.880211999999855</v>
       </c>
       <c r="C45" s="35">
         <v>2.5117500000000001</v>
@@ -21305,7 +21305,7 @@
       </c>
       <c r="B46" s="35">
         <f t="shared" si="5"/>
-        <v>52.226903999999998</v>
+        <v>31.586807999999994</v>
       </c>
       <c r="C46" s="35">
         <v>2.4537200000000001</v>
@@ -21349,7 +21349,7 @@
       </c>
       <c r="B47" s="35">
         <f t="shared" si="5"/>
-        <v>53.413451999999765</v>
+        <v>32.293403999999853</v>
       </c>
       <c r="C47" s="35">
         <v>2.3971800000000001</v>
@@ -21393,7 +21393,7 @@
       </c>
       <c r="B48" s="35">
         <f t="shared" si="5"/>
-        <v>54.6</v>
+        <v>33</v>
       </c>
       <c r="C48" s="35">
         <v>2.3422700000000001</v>
@@ -21437,7 +21437,7 @@
       </c>
       <c r="B49" s="35">
         <f t="shared" si="5"/>
-        <v>55.786547999999762</v>
+        <v>33.706595999999855</v>
       </c>
       <c r="C49" s="35">
         <v>2.2891300000000001</v>
@@ -21481,7 +21481,7 @@
       </c>
       <c r="B50" s="35">
         <f t="shared" si="5"/>
-        <v>56.973096000000005</v>
+        <v>34.413192000000002</v>
       </c>
       <c r="C50" s="35">
         <v>2.2378999999999998</v>
@@ -21525,7 +21525,7 @@
       </c>
       <c r="B51" s="35">
         <f t="shared" si="5"/>
-        <v>58.159643999999759</v>
+        <v>35.119787999999858</v>
       </c>
       <c r="C51" s="35">
         <v>2.18872</v>
@@ -21569,7 +21569,7 @@
       </c>
       <c r="B52" s="35">
         <f t="shared" si="5"/>
-        <v>59.346192000000002</v>
+        <v>35.826384000000004</v>
       </c>
       <c r="C52" s="35">
         <v>2.14174</v>
@@ -21613,7 +21613,7 @@
       </c>
       <c r="B53" s="35">
         <f t="shared" si="5"/>
-        <v>60.533807999999993</v>
+        <v>36.533615999999995</v>
       </c>
       <c r="C53" s="35">
         <v>2.0970900000000001</v>
@@ -21657,7 +21657,7 @@
       </c>
       <c r="B54" s="35">
         <f t="shared" si="5"/>
-        <v>61.720356000000002</v>
+        <v>37.240212</v>
       </c>
       <c r="C54" s="35">
         <v>2.0549200000000001</v>
@@ -21701,7 +21701,7 @@
       </c>
       <c r="B55" s="35">
         <f t="shared" si="5"/>
-        <v>62.906903999999997</v>
+        <v>37.946807999999997</v>
       </c>
       <c r="C55" s="35">
         <v>2.0153599999999998</v>
@@ -21745,7 +21745,7 @@
       </c>
       <c r="B56" s="35">
         <f t="shared" si="5"/>
-        <v>64.093451999999999</v>
+        <v>38.653404000000002</v>
       </c>
       <c r="C56" s="35">
         <v>1.9785600000000001</v>
@@ -21789,7 +21789,7 @@
       </c>
       <c r="B57" s="35">
         <f t="shared" si="5"/>
-        <v>65.28</v>
+        <v>39.36</v>
       </c>
       <c r="C57" s="35">
         <v>1.9446600000000001</v>
@@ -21833,7 +21833,7 @@
       </c>
       <c r="B58" s="35">
         <f t="shared" si="5"/>
-        <v>66.466547999999989</v>
+        <v>40.066595999999997</v>
       </c>
       <c r="C58" s="35">
         <v>1.9137500000000001</v>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="B59" s="35">
         <f t="shared" si="5"/>
-        <v>67.653096000000005</v>
+        <v>40.773192000000002</v>
       </c>
       <c r="C59" s="35">
         <v>1.8857200000000001</v>
@@ -21921,7 +21921,7 @@
       </c>
       <c r="B60" s="35">
         <f t="shared" si="5"/>
-        <v>68.839643999999765</v>
+        <v>41.479787999999857</v>
       </c>
       <c r="C60" s="35">
         <v>1.86039</v>
@@ -21965,7 +21965,7 @@
       </c>
       <c r="B61" s="35">
         <f t="shared" si="5"/>
-        <v>70.026192000000009</v>
+        <v>42.186383999999997</v>
       </c>
       <c r="C61" s="35">
         <v>1.83762</v>
@@ -22009,7 +22009,7 @@
       </c>
       <c r="B62" s="35">
         <f t="shared" si="5"/>
-        <v>71.213808</v>
+        <v>42.893616000000002</v>
       </c>
       <c r="C62" s="35">
         <v>1.8172299999999999</v>
@@ -22053,7 +22053,7 @@
       </c>
       <c r="B63" s="35">
         <f t="shared" si="5"/>
-        <v>72.400355999999761</v>
+        <v>43.600211999999857</v>
       </c>
       <c r="C63" s="35">
         <v>1.7990600000000001</v>
@@ -22097,7 +22097,7 @@
       </c>
       <c r="B64" s="35">
         <f t="shared" si="5"/>
-        <v>73.586904000000004</v>
+        <v>44.306808000000004</v>
       </c>
       <c r="C64" s="35">
         <v>1.7829600000000001</v>
@@ -22141,7 +22141,7 @@
       </c>
       <c r="B65" s="35">
         <f t="shared" si="5"/>
-        <v>74.773452000000006</v>
+        <v>45.013404000000008</v>
       </c>
       <c r="C65" s="35">
         <v>1.76875</v>
@@ -22185,7 +22185,7 @@
       </c>
       <c r="B66" s="35">
         <f t="shared" ref="B66:B94" si="8">A66*$O$3+$O$2</f>
-        <v>75.959999999999766</v>
+        <v>45.719999999999864</v>
       </c>
       <c r="C66" s="35">
         <v>1.7562599999999999</v>
@@ -22229,7 +22229,7 @@
       </c>
       <c r="B67" s="35">
         <f t="shared" si="8"/>
-        <v>77.14654800000001</v>
+        <v>46.426596000000004</v>
       </c>
       <c r="C67" s="35">
         <v>1.74535</v>
@@ -22273,7 +22273,7 @@
       </c>
       <c r="B68" s="35">
         <f t="shared" si="8"/>
-        <v>78.333095999999756</v>
+        <v>47.133191999999859</v>
       </c>
       <c r="C68" s="35">
         <v>1.7358499999999999</v>
@@ -22317,7 +22317,7 @@
       </c>
       <c r="B69" s="35">
         <f t="shared" si="8"/>
-        <v>79.519644</v>
+        <v>47.839787999999999</v>
       </c>
       <c r="C69" s="35">
         <v>1.7275799999999999</v>
@@ -22361,7 +22361,7 @@
       </c>
       <c r="B70" s="35">
         <f t="shared" si="8"/>
-        <v>80.706192000000001</v>
+        <v>48.546383999999996</v>
       </c>
       <c r="C70" s="35">
         <v>1.7203900000000001</v>
@@ -22405,7 +22405,7 @@
       </c>
       <c r="B71" s="35">
         <f t="shared" si="8"/>
-        <v>81.893808000000007</v>
+        <v>49.253616000000001</v>
       </c>
       <c r="C71" s="35">
         <v>1.7141200000000001</v>
@@ -22449,7 +22449,7 @@
       </c>
       <c r="B72" s="35">
         <f t="shared" si="8"/>
-        <v>83.080355999999753</v>
+        <v>49.960211999999856</v>
       </c>
       <c r="C72" s="35">
         <v>1.7085900000000001</v>
@@ -22493,7 +22493,7 @@
       </c>
       <c r="B73" s="35">
         <f t="shared" si="8"/>
-        <v>84.266903999999997</v>
+        <v>50.666808000000003</v>
       </c>
       <c r="C73" s="35">
         <v>1.70366</v>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="B74" s="35">
         <f t="shared" si="8"/>
-        <v>85.453452000000013</v>
+        <v>51.373404000000001</v>
       </c>
       <c r="C74" s="35">
         <v>1.6991499999999999</v>
@@ -22581,7 +22581,7 @@
       </c>
       <c r="B75" s="35">
         <f t="shared" si="8"/>
-        <v>86.64</v>
+        <v>52.08</v>
       </c>
       <c r="C75" s="35">
         <v>1.6949000000000001</v>
@@ -22625,7 +22625,7 @@
       </c>
       <c r="B76" s="35">
         <f t="shared" si="8"/>
-        <v>87.826547999999761</v>
+        <v>52.786595999999854</v>
       </c>
       <c r="C76" s="35">
         <v>1.6907399999999999</v>
@@ -22667,7 +22667,7 @@
       </c>
       <c r="B77" s="35">
         <f t="shared" si="8"/>
-        <v>89.013095999999763</v>
+        <v>53.493191999999851</v>
       </c>
       <c r="C77" s="35">
         <v>1.68652</v>
@@ -22709,7 +22709,7 @@
       </c>
       <c r="B78" s="35">
         <f t="shared" si="8"/>
-        <v>90.199644000000006</v>
+        <v>54.199787999999998</v>
       </c>
       <c r="C78" s="35">
         <v>1.68207</v>
@@ -22751,7 +22751,7 @@
       </c>
       <c r="B79" s="35">
         <f t="shared" si="8"/>
-        <v>91.386191999999994</v>
+        <v>54.906383999999996</v>
       </c>
       <c r="C79" s="35">
         <v>1.67723</v>
@@ -22793,7 +22793,7 @@
       </c>
       <c r="B80" s="35">
         <f t="shared" si="8"/>
-        <v>92.573808</v>
+        <v>55.613616</v>
       </c>
       <c r="C80" s="35">
         <v>1.6712899999999999</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="B81" s="35">
         <f t="shared" si="8"/>
-        <v>93.760355999999987</v>
+        <v>56.320211999999991</v>
       </c>
       <c r="C81" s="35">
         <v>1.66143</v>
@@ -22877,7 +22877,7 @@
       </c>
       <c r="B82" s="35">
         <f t="shared" si="8"/>
-        <v>94.946904000000018</v>
+        <v>57.026808000000003</v>
       </c>
       <c r="C82" s="35">
         <v>1.6442699999999999</v>
@@ -22919,7 +22919,7 @@
       </c>
       <c r="B83" s="35">
         <f t="shared" si="8"/>
-        <v>96.133452000000005</v>
+        <v>57.733404</v>
       </c>
       <c r="C83" s="35">
         <v>1.6164400000000001</v>
@@ -22961,7 +22961,7 @@
       </c>
       <c r="B84" s="35">
         <f t="shared" si="8"/>
-        <v>97.320000000000007</v>
+        <v>58.44</v>
       </c>
       <c r="C84" s="35">
         <v>1.5745800000000001</v>
@@ -23003,7 +23003,7 @@
       </c>
       <c r="B85" s="35">
         <f t="shared" si="8"/>
-        <v>98.506547999999754</v>
+        <v>59.146595999999853</v>
       </c>
       <c r="C85" s="35">
         <v>1.5153099999999999</v>
@@ -23045,7 +23045,7 @@
       </c>
       <c r="B86" s="35">
         <f t="shared" si="8"/>
-        <v>99.693095999999997</v>
+        <v>59.853191999999993</v>
       </c>
       <c r="C86" s="35">
         <v>1.43526</v>
@@ -23087,7 +23087,7 @@
       </c>
       <c r="B87" s="35">
         <f t="shared" si="8"/>
-        <v>100.879644</v>
+        <v>60.559787999999998</v>
       </c>
       <c r="C87" s="35">
         <v>1.3310599999999999</v>
@@ -23129,7 +23129,7 @@
       </c>
       <c r="B88" s="35">
         <f t="shared" si="8"/>
-        <v>102.066192</v>
+        <v>61.266384000000002</v>
       </c>
       <c r="C88" s="35">
         <v>1.1993400000000001</v>
@@ -23171,7 +23171,7 @@
       </c>
       <c r="B89" s="35">
         <f t="shared" si="8"/>
-        <v>103.25380799999999</v>
+        <v>61.973615999999993</v>
       </c>
       <c r="C89" s="35">
         <v>1.0367299999999999</v>
@@ -23213,7 +23213,7 @@
       </c>
       <c r="B90" s="35">
         <f t="shared" si="8"/>
-        <v>104.44035599999975</v>
+        <v>62.680211999999848</v>
       </c>
       <c r="C90" s="35">
         <v>0.83986000000000005</v>
@@ -23255,7 +23255,7 @@
       </c>
       <c r="B91" s="35">
         <f t="shared" si="8"/>
-        <v>104.79599999999976</v>
+        <v>62.891999999999854</v>
       </c>
       <c r="C91" s="35">
         <v>0.77376573719670505</v>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="B92" s="35">
         <f t="shared" si="8"/>
-        <v>105.62690399999975</v>
+        <v>63.386807999999846</v>
       </c>
       <c r="C92" s="35">
         <v>0.60536000000000001</v>
@@ -23339,7 +23339,7 @@
       </c>
       <c r="B93" s="35">
         <f t="shared" si="8"/>
-        <v>106.813452</v>
+        <v>64.093403999999992</v>
       </c>
       <c r="C93" s="35">
         <v>0.32987</v>
@@ -23381,7 +23381,7 @@
       </c>
       <c r="B94" s="35">
         <f t="shared" si="8"/>
-        <v>108</v>
+        <v>64.8</v>
       </c>
       <c r="C94" s="35">
         <v>0.1</v>
